--- a/wikipedia_validation_sheets/Itch DISNET VALIDATION.xlsx
+++ b/wikipedia_validation_sheets/Itch DISNET VALIDATION.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/GITLAB/wikipedia_validation_sheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Documents/1.Doctorado/3_SEMESTRE/PAPER/estructura_disnet/paperLinks/paperdisnet/wikipedia_validation_sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EAB454D1-5025-814D-A065-CCE3B772BEAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF5B886-D6DF-3E4D-9E88-39CB9174C26A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41280" yWindow="1280" windowWidth="20500" windowHeight="7540" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
+    <workbookView xWindow="42720" yWindow="1600" windowWidth="17620" windowHeight="20000" xr2:uid="{CF915BD0-0557-40D8-9E86-96D7E49BAF2C}"/>
   </bookViews>
   <sheets>
     <sheet name="VALIDATION" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="161">
   <si>
     <t>WIKIPEDIA TERMS</t>
   </si>
@@ -376,6 +381,138 @@
   </si>
   <si>
     <t>FPCONTEXT</t>
+  </si>
+  <si>
+    <t>delusions</t>
+  </si>
+  <si>
+    <t>Delusions</t>
+  </si>
+  <si>
+    <t>[mobd]</t>
+  </si>
+  <si>
+    <t>infections</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>[patf]</t>
+  </si>
+  <si>
+    <t>jaundice</t>
+  </si>
+  <si>
+    <t>Icterus</t>
+  </si>
+  <si>
+    <t>pimples</t>
+  </si>
+  <si>
+    <t>Pimples</t>
+  </si>
+  <si>
+    <t>psychiatric, disease</t>
+  </si>
+  <si>
+    <t>Mental disorders NOS</t>
+  </si>
+  <si>
+    <t>scab</t>
+  </si>
+  <si>
+    <t>Scab</t>
+  </si>
+  <si>
+    <t>[acab]</t>
+  </si>
+  <si>
+    <t>lymphoma</t>
+  </si>
+  <si>
+    <t>Lymphoma</t>
+  </si>
+  <si>
+    <t>[neop]</t>
+  </si>
+  <si>
+    <t>decisionmaking</t>
+  </si>
+  <si>
+    <t>Decision making</t>
+  </si>
+  <si>
+    <t>[menp]</t>
+  </si>
+  <si>
+    <t>gestational, pemphigoid</t>
+  </si>
+  <si>
+    <t>Pemphigoid gestationis</t>
+  </si>
+  <si>
+    <t>malignancy, cancer</t>
+  </si>
+  <si>
+    <t>Primary malignant neoplasm</t>
+  </si>
+  <si>
+    <t>concentrations</t>
+  </si>
+  <si>
+    <t>Mental concentration</t>
+  </si>
+  <si>
+    <t>hodgkins, disease</t>
+  </si>
+  <si>
+    <t>Hodgkin disease</t>
+  </si>
+  <si>
+    <t>motivations</t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>punctate, palmoplantar, keratoderma</t>
+  </si>
+  <si>
+    <t>Punctate palmoplantar keratoderma</t>
+  </si>
+  <si>
+    <t>[cgab]</t>
+  </si>
+  <si>
+    <t>puppp</t>
+  </si>
+  <si>
+    <t>Papular dermatitis of pregnancy</t>
+  </si>
+  <si>
+    <t>moles</t>
+  </si>
+  <si>
+    <t>Nevus</t>
+  </si>
+  <si>
+    <t>allergic, reaction</t>
+  </si>
+  <si>
+    <t>Allergic reaction</t>
+  </si>
+  <si>
+    <t>blocking</t>
+  </si>
+  <si>
+    <t>Mental blocking</t>
+  </si>
+  <si>
+    <t>plaques</t>
+  </si>
+  <si>
+    <t>Senile plaque</t>
   </si>
 </sst>
 </file>
@@ -407,7 +544,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +584,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,7 +870,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -798,6 +941,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -823,7 +972,17 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1144,10 +1303,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF501930-A237-4EA3-A3D6-166E67897307}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="88" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1159,38 +1318,38 @@
     <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="D2" s="37"/>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="F2" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="38"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -2581,35 +2740,700 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="22"/>
-    </row>
-    <row r="52" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="25" t="s">
+    <row r="51" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E52" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H53" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E54" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E56" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E57" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E58" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E59" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H59" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E62" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="E63" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H64" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E65" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H65" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E67" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E68" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H68" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E69" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+      <c r="I70" s="22"/>
+    </row>
+    <row r="71" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="I52" s="30" t="s">
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I71" s="30" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2618,7 +3442,10 @@
     <mergeCell ref="F2:I2"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:C50">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C51:C69">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
